--- a/biology/Botanique/Autranella_congolensis/Autranella_congolensis.xlsx
+++ b/biology/Botanique/Autranella_congolensis/Autranella_congolensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Autranella congolensis est une espèce de plantes à fleurs de la famille des Sapotaceae. C'est un arbre qui pousse en Afrique équatoriale occidentale. C'est la seule espèce actuellement acceptée du genre Autranella.
 Cette espèce est en danger critique d'extinction. Elle vit au Cameroun, au Congo en République démocratique du Congo, au Gabon et au Nigeria.
@@ -513,7 +525,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Mimusops congolensis De Wild.
 Mimusops boonei De Wild.
